--- a/umls.nlm.nih.gov/releasedocs/checklist_umls_release_docs.xlsx
+++ b/umls.nlm.nih.gov/releasedocs/checklist_umls_release_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rewolinskija\Documents\umls-source-release-1\umls.nlm.nih.gov\releasedocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67C396D-1FB5-4616-9DBF-E0588952D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DC349E-A825-42DB-9754-566169133B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'2024AA sources count'!$A$1:$A$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025AA checklist'!$A$1:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025AA checklist'!$A$1:$L$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="181">
   <si>
     <t>ATC_2025_02_10,ATC,ENG </t>
   </si>
@@ -304,9 +304,6 @@
     <t>Name of page</t>
   </si>
   <si>
-    <t>Saved in GitLab</t>
-  </si>
-  <si>
     <t>Email sent</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
   </si>
   <si>
     <t>← Before email</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>https://uts.nlm.nih.gov/uts/assets/licenseText.html</t>
@@ -435,9 +429,6 @@
   </si>
   <si>
     <t>Teamsite umls/archive</t>
-  </si>
-  <si>
-    <t>Could just change instructions so copy and paste text with no linking</t>
   </si>
   <si>
     <t>Saved in Teamsite, just need to hit submit</t>
@@ -571,9 +562,6 @@
   </si>
   <si>
     <t>Submit in TeamSite Monday (look at instructions)</t>
-  </si>
-  <si>
-    <t>Figure out why the link isn't wokring in archive_home</t>
   </si>
   <si>
     <t xml:space="preserve">Just click today for modified and reviewed then submit the page. </t>
@@ -598,6 +586,24 @@
   </si>
   <si>
     <t>Saved in TeamSite. When you publish check that tables look okay</t>
+  </si>
+  <si>
+    <t>Saved in GitLab/TeamSite</t>
+  </si>
+  <si>
+    <t>Look at why reviewed block is outside div</t>
+  </si>
+  <si>
+    <t>→ Release day last</t>
+  </si>
+  <si>
+    <t>Fix validation errors that show up in TeamSite. Could just change instructions so copy and paste text with no linking</t>
+  </si>
+  <si>
+    <t>→ Release day last and  ← Before email</t>
+  </si>
+  <si>
+    <t>→ Before</t>
   </si>
 </sst>
 </file>
@@ -657,7 +663,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,8 +712,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -734,21 +746,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,132 +789,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -930,13 +807,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
       <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,33 +873,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -998,58 +900,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,16 +941,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,20 +962,156 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1435,1375 +1434,1397 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ35"/>
+  <dimension ref="A1:AZ34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" hidden="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.140625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="52.140625" style="29" customWidth="1"/>
     <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="109.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="109.7109375" customWidth="1"/>
     <col min="13" max="52" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="5" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:52" s="5" customFormat="1" ht="70.5" customHeight="1" thickBot="1">
+      <c r="A1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+    </row>
+    <row r="2" spans="1:52" ht="20.25" customHeight="1">
+      <c r="A2" s="45">
+        <v>2.1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+    </row>
+    <row r="3" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A3" s="45">
+        <v>2.1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A4" s="45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A5" s="45">
+        <v>3.1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A6" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A7" s="37">
+        <v>3.2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A8" s="45">
+        <v>3.3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:52" ht="27" customHeight="1">
+      <c r="A9" s="45">
+        <v>3.4</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A10" s="45">
+        <v>5.2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A11" s="45">
+        <v>5.2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A12" s="37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A13" s="45">
+        <v>5.2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="20.25" customHeight="1">
+      <c r="A14" s="45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-    </row>
-    <row r="2" spans="1:52" ht="20.25" customHeight="1">
-      <c r="A2" s="12">
+      <c r="C14" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A15" s="45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A16" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A17" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A18" s="45">
+        <v>1.3</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+    </row>
+    <row r="19" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A19" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A20" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+    </row>
+    <row r="21" spans="1:52" ht="60" customHeight="1">
+      <c r="A21" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="H21" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
+    </row>
+    <row r="22" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A22" s="45">
+        <v>1.2</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+    </row>
+    <row r="23" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A23" s="45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+    </row>
+    <row r="24" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A24" s="45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+    </row>
+    <row r="25" spans="1:52" ht="19.5" customHeight="1">
+      <c r="A25" s="45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+    </row>
+    <row r="26" spans="1:52" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A26" s="45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="13" t="s">
+      <c r="K26" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+    </row>
+    <row r="27" spans="1:52" ht="15" customHeight="1">
+      <c r="A27" s="45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-    </row>
-    <row r="3" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A3" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="19"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-    </row>
-    <row r="4" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A4" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A5" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A6" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-    </row>
-    <row r="7" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A7" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A8" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:52" ht="27" customHeight="1">
-      <c r="A9" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-    </row>
-    <row r="10" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A10" s="23">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="30"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A11" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A12" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A13" s="12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" ht="20.25" customHeight="1">
-      <c r="A14" s="26">
-        <v>2.1</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:52" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A16" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A17" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A18" s="23">
-        <v>5.2</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A19" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="I27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="10"/>
+    </row>
+    <row r="28" spans="1:52" ht="15" customHeight="1">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="1:52" ht="18.75" customHeight="1"/>
+    <row r="30" spans="1:52" ht="15" customHeight="1">
+      <c r="B30" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19" t="s">
+    </row>
+    <row r="31" spans="1:52" ht="18.75" customHeight="1"/>
+    <row r="32" spans="1:52" ht="15" customHeight="1">
+      <c r="B32" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-    </row>
-    <row r="20" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A20" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="21" t="s">
+    </row>
+    <row r="33" spans="2:3" ht="18.75" customHeight="1"/>
+    <row r="34" spans="2:3" ht="15" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A21" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="20"/>
-    </row>
-    <row r="22" spans="1:52" ht="60" customHeight="1">
-      <c r="A22" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-    </row>
-    <row r="23" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A23" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="20"/>
-      <c r="AW23" s="20"/>
-      <c r="AX23" s="20"/>
-      <c r="AY23" s="20"/>
-      <c r="AZ23" s="20"/>
-    </row>
-    <row r="24" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A24" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
-      <c r="AU24" s="20"/>
-      <c r="AV24" s="20"/>
-      <c r="AW24" s="20"/>
-      <c r="AX24" s="20"/>
-      <c r="AY24" s="20"/>
-      <c r="AZ24" s="20"/>
-    </row>
-    <row r="25" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A25" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="20"/>
-      <c r="AU25" s="20"/>
-      <c r="AV25" s="20"/>
-      <c r="AW25" s="20"/>
-      <c r="AX25" s="20"/>
-      <c r="AY25" s="20"/>
-      <c r="AZ25" s="20"/>
-    </row>
-    <row r="26" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A26" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-      <c r="AU26" s="20"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="20"/>
-      <c r="AY26" s="20"/>
-      <c r="AZ26" s="20"/>
-    </row>
-    <row r="27" spans="1:52" ht="53.25" customHeight="1">
-      <c r="A27" s="31">
-        <v>3.4</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="13"/>
-    </row>
-    <row r="28" spans="1:52" ht="15" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="13"/>
-      <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
-      <c r="AZ28" s="13"/>
-    </row>
-    <row r="29" spans="1:52" ht="15" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="37"/>
-    </row>
-    <row r="30" spans="1:52" ht="18.75" customHeight="1"/>
-    <row r="31" spans="1:52" ht="15" customHeight="1">
-      <c r="B31" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:52" ht="18.75" customHeight="1"/>
-    <row r="33" spans="2:3" ht="15" customHeight="1">
-      <c r="B33" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="18.75" customHeight="1"/>
-    <row r="35" spans="2:3" ht="15" customHeight="1">
-      <c r="B35" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>169</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L29" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L29">
-      <sortCondition ref="G1:G29"/>
+  <autoFilter ref="A1:L28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L28">
+      <sortCondition ref="B1:B28"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L27">
+    <sortCondition ref="A2:A27"/>
+    <sortCondition ref="G2:G27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
